--- a/Opgaveoverblik.xlsx
+++ b/Opgaveoverblik.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="Denne_projektmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84F66886-11D9-412D-8007-B6A99A7A0C4F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F95662C1-5659-4518-AFBC-8C4A2B0E7E1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduktion" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -188,6 +188,90 @@
   <si>
     <t xml:space="preserve">Her indskrives de relevante brugere af arket, så man kan referere til de relevante kollegaere i dokumentet. </t>
   </si>
+  <si>
+    <t>DADR</t>
+  </si>
+  <si>
+    <t>JONI</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Fysik</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Rapportoprettelse</t>
+  </si>
+  <si>
+    <t>Der skal oprettes et Share-Latex projekt i henhold til opgavebeskrivelsen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kanon-fysik</t>
+  </si>
+  <si>
+    <t>Der skal ændres i fysikken for skibets kanoner, samt skrives kode til hvordan flere kanon kan påsættes skibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skibets skala skal ændres så det passer til det map der sejles rundt på. Dette inkluderer også at tilpasse skibets fysik ift. Hvor hurtigt skibet er, hvor hurtigt det drejer, acceleration osv. Det kunne måske være smart at lave en skalerings værdi som op- eller nedskalerer alt. </t>
+  </si>
+  <si>
+    <t>Skibs-skalering og bevægelse</t>
+  </si>
+  <si>
+    <t>Inkorporering af MapGenerator i projektet</t>
+  </si>
+  <si>
+    <t>MapGenerator skal tilføjes til projektet, så AI-delen fungerer når der ændres i seeding af MapGenerator</t>
+  </si>
+  <si>
+    <t>AI placering i forhold til Player skibet</t>
+  </si>
+  <si>
+    <t>Der skal laves en måde, hvorpå skibets placering og orientering bliver brugt, således at AI skibene kan placere sig sådan at de kan skyde på Player skibet</t>
+  </si>
+  <si>
+    <t>Oprettelse af RPG Scenarie</t>
+  </si>
+  <si>
+    <t>Der skal oprettes et scenarie til vores RPG element, som skal indholde værelserne med vores adgang til levels</t>
+  </si>
+  <si>
+    <t>Opsætning af level menu</t>
+  </si>
+  <si>
+    <t>Der skal opsættes en level menu, sådan så man kan vælge hvilket map man gerne vil spille</t>
+  </si>
+  <si>
+    <t>Player movement</t>
+  </si>
+  <si>
+    <t>Player movement skal implementeres som Point-and-Click</t>
+  </si>
+  <si>
+    <t>Upgrade choice menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der skal laves en menu som giver spilleren 2 forskellige valg mellem opgradering, når spilleren har vundet et map. </t>
+  </si>
+  <si>
+    <t>Upgrade choice generering</t>
+  </si>
+  <si>
+    <t>Der skal laves opgraderinger som kan påføres vores skibe, så det påvirker fysikken i spillet.</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,12 +457,79 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -455,6 +606,226 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFADA36F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFADA36F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -680,49 +1051,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -733,72 +1061,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -824,22 +1086,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{612DA6B7-300A-4EFE-989B-717B54988CFD}" name="Tabel1" displayName="Tabel1" ref="A1:M197" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{612DA6B7-300A-4EFE-989B-717B54988CFD}" name="Tabel1" displayName="Tabel1" ref="A1:M197" totalsRowShown="0" headerRowDxfId="71">
   <autoFilter ref="A1:M197" xr:uid="{357EC879-86F5-4B40-95D5-B701C580CB32}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8E20FD3B-BEB0-4E09-B330-C810D95F2EB5}" name="#" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{0DC3ED64-D027-401F-8884-F1DB1C95891E}" name="Oprettet af" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{04A0197A-8571-4AD8-997E-7F9C51CF23BA}" name="Navn" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{8F20F71B-BD67-473B-837D-515D63B07033}" name="Type" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{57EE1E7C-CEC7-4FF2-8233-140509E50B6C}" name="Beskrivelse af opgave" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{1B4B6405-EEED-475E-BC78-F0684B7EB486}" name="Ansvarlig" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{CC409F30-590A-4B7E-B3E6-8FD3B91935E5}" name="Afhængighed" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{4B6832B6-2837-4C15-BC4F-B384E264C697}" name="Prioritet" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{1724F760-705C-43B5-B382-FC7B82E7471E}" name="Deadline" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{D81F67CC-3E9D-4309-9656-CFBB1D777E84}" name="Status" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{38F2E71F-6DF4-4B15-B6DF-6C0BCC29B48A}" name="Uddybende status" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{E7C5F009-8190-4E2A-A49F-C73AFEB4F74B}" name="Filplacering" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{54ADD58D-A272-45AA-B23D-6242BE2DB784}" name="Dage tilbage til Deadline" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{8E20FD3B-BEB0-4E09-B330-C810D95F2EB5}" name="#" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{0DC3ED64-D027-401F-8884-F1DB1C95891E}" name="Oprettet af" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{04A0197A-8571-4AD8-997E-7F9C51CF23BA}" name="Navn" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{8F20F71B-BD67-473B-837D-515D63B07033}" name="Type" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{57EE1E7C-CEC7-4FF2-8233-140509E50B6C}" name="Beskrivelse af opgave" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{1B4B6405-EEED-475E-BC78-F0684B7EB486}" name="Ansvarlig" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{CC409F30-590A-4B7E-B3E6-8FD3B91935E5}" name="Afhængighed" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{4B6832B6-2837-4C15-BC4F-B384E264C697}" name="Prioritet" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{1724F760-705C-43B5-B382-FC7B82E7471E}" name="Deadline" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{D81F67CC-3E9D-4309-9656-CFBB1D777E84}" name=" " dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{38F2E71F-6DF4-4B15-B6DF-6C0BCC29B48A}" name="Uddybende status" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{E7C5F009-8190-4E2A-A49F-C73AFEB4F74B}" name="Filplacering" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{54ADD58D-A272-45AA-B23D-6242BE2DB784}" name="Dage tilbage til Deadline" dataDxfId="66">
       <calculatedColumnFormula>IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -848,22 +1110,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{542B16E9-08D3-41D4-AC8A-1F50ECA2C6D5}" name="Tabel13" displayName="Tabel13" ref="A1:M197" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{542B16E9-08D3-41D4-AC8A-1F50ECA2C6D5}" name="Tabel13" displayName="Tabel13" ref="A1:M197" totalsRowShown="0" headerRowDxfId="65">
   <autoFilter ref="A1:M197" xr:uid="{357EC879-86F5-4B40-95D5-B701C580CB32}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{44467EE7-3696-404F-B8E2-DEEA1D302FCD}" name="#" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{F24964A0-F409-43AD-AFF9-F7FCEC833D04}" name="Oprettet af" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{A57A0D1E-4ED6-44B5-BA66-A357034E6562}" name="Navn" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{3B6FE7C1-91C1-401A-B9C9-E903B90B28F1}" name="Type" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{E77A9D25-55A2-4947-9A1C-713D4A696166}" name="Beskrivelse af opgave" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{06712186-AD66-4AD7-A7B3-6FFCE12EFA93}" name="Ansvarlig" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{AD045877-5F58-4D33-848C-E524E7E20996}" name="Afhængighed" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{08C5EAE3-678F-4BC3-AE1C-9B968EF62037}" name="Prioritet" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{915D7537-AF04-4892-9E74-8680A0A51128}" name="Deadline" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{3622FB1F-3975-4120-A42E-BCC799ED6F5D}" name="Status" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{F1E978AE-7FBE-4875-831B-E7738B60E2ED}" name="Uddybende status" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{F7EF4294-5BED-4E0D-860E-E6E3229B3856}" name="Filplacering" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{EDD0A301-8F12-48F3-BCDB-DD7BFD8ACA02}" name="Dage tilbage til Deadline" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{44467EE7-3696-404F-B8E2-DEEA1D302FCD}" name="#" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{F24964A0-F409-43AD-AFF9-F7FCEC833D04}" name="Oprettet af" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{A57A0D1E-4ED6-44B5-BA66-A357034E6562}" name="Navn" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{3B6FE7C1-91C1-401A-B9C9-E903B90B28F1}" name="Type" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{E77A9D25-55A2-4947-9A1C-713D4A696166}" name="Beskrivelse af opgave" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{06712186-AD66-4AD7-A7B3-6FFCE12EFA93}" name="Ansvarlig" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{AD045877-5F58-4D33-848C-E524E7E20996}" name="Afhængighed" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{08C5EAE3-678F-4BC3-AE1C-9B968EF62037}" name="Prioritet" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{915D7537-AF04-4892-9E74-8680A0A51128}" name="Deadline" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{3622FB1F-3975-4120-A42E-BCC799ED6F5D}" name="Status" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{F1E978AE-7FBE-4875-831B-E7738B60E2ED}" name="Uddybende status" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{F7EF4294-5BED-4E0D-860E-E6E3229B3856}" name="Filplacering" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{EDD0A301-8F12-48F3-BCDB-DD7BFD8ACA02}" name="Dage tilbage til Deadline" dataDxfId="52">
       <calculatedColumnFormula>IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1159,7 +1421,7 @@
   <sheetPr codeName="Ark2"/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1326,22 +1588,22 @@
   <sheetPr codeName="Ark3"/>
   <dimension ref="A1:O387"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="20" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15" style="32" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="32" customWidth="1"/>
     <col min="5" max="5" width="53.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="38" customWidth="1"/>
     <col min="11" max="11" width="64.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="34.21875" style="2" customWidth="1"/>
     <col min="13" max="13" width="26.109375" style="28" customWidth="1"/>
@@ -1351,13 +1613,13 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -1375,8 +1637,8 @@
       <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>6</v>
+      <c r="J1" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="K1" s="26" t="s">
         <v>7</v>
@@ -1388,132 +1650,152 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="C2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="20"/>
       <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>43449</v>
-      </c>
-      <c r="J2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="38">
         <v>0</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="28" t="str">
         <f ca="1">IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</f>
-        <v>31</v>
+        <v>Ingen Deadline valgt</v>
       </c>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>26</v>
+      <c r="B3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="8">
+        <v>4</v>
       </c>
       <c r="H3" s="8">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>43434</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="28">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28" t="str">
         <f ca="1">IF(I3-TODAY()&lt;0, "Ingen Deadline valgt", I3-TODAY())</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>Ingen Deadline valgt</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>28</v>
+      <c r="B4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="8">
+        <v>4</v>
       </c>
       <c r="H4" s="8">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6">
-        <v>43419</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="28">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="str">
         <f t="shared" ref="M4:M67" ca="1" si="0">IF(I4-TODAY()&lt;0, "Ingen Deadline valgt", I4-TODAY())</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>Ingen Deadline valgt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="H5" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="4">
-        <v>0.75</v>
+      <c r="J5" s="38">
+        <v>0</v>
       </c>
       <c r="M5" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="H6" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="4">
-        <v>1</v>
+      <c r="J6" s="38">
+        <v>0</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="28" t="str">
@@ -1521,23 +1803,62 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
+      <c r="B7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F7" s="20"/>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
       <c r="I7" s="6"/>
+      <c r="J7" s="38">
+        <v>0</v>
+      </c>
       <c r="M7" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
+      <c r="B8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F8" s="20"/>
+      <c r="G8" s="8">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
       <c r="I8" s="6"/>
+      <c r="J8" s="38">
+        <v>0</v>
+      </c>
       <c r="M8" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
@@ -1547,30 +1868,90 @@
       <c r="A9" s="20">
         <v>8</v>
       </c>
+      <c r="B9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" s="20"/>
+      <c r="G9" s="8">
+        <v>6</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
       <c r="I9" s="6"/>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
       <c r="M9" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
+      <c r="B10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F10" s="20"/>
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
       <c r="I10" s="6"/>
+      <c r="J10" s="38">
+        <v>0</v>
+      </c>
       <c r="M10" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>10</v>
       </c>
+      <c r="B11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="20"/>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
       <c r="I11" s="6"/>
+      <c r="J11" s="38">
+        <v>0</v>
+      </c>
       <c r="M11" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
@@ -1778,7 +2159,7 @@
       <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="35"/>
       <c r="F30" s="20"/>
       <c r="I30" s="6"/>
       <c r="M30" s="28" t="str">
@@ -2858,7 +3239,7 @@
       <c r="A128" s="20">
         <v>127</v>
       </c>
-      <c r="C128" s="10"/>
+      <c r="C128" s="36"/>
       <c r="F128" s="20"/>
       <c r="I128" s="6"/>
       <c r="M128" s="28" t="str">
@@ -2870,7 +3251,7 @@
       <c r="A129" s="20">
         <v>128</v>
       </c>
-      <c r="C129" s="10"/>
+      <c r="C129" s="36"/>
       <c r="F129" s="20"/>
       <c r="I129" s="6"/>
       <c r="M129" s="28" t="str">
@@ -2882,7 +3263,7 @@
       <c r="A130" s="20">
         <v>129</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" s="36"/>
       <c r="F130" s="20"/>
       <c r="I130" s="6"/>
       <c r="M130" s="28" t="str">
@@ -2894,7 +3275,7 @@
       <c r="A131" s="20">
         <v>130</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="36"/>
       <c r="F131" s="20"/>
       <c r="I131" s="6"/>
       <c r="M131" s="28" t="str">
@@ -2906,7 +3287,7 @@
       <c r="A132" s="20">
         <v>131</v>
       </c>
-      <c r="C132" s="10"/>
+      <c r="C132" s="36"/>
       <c r="F132" s="20"/>
       <c r="I132" s="6"/>
       <c r="M132" s="28" t="str">
@@ -2918,7 +3299,7 @@
       <c r="A133" s="20">
         <v>132</v>
       </c>
-      <c r="C133" s="10"/>
+      <c r="C133" s="36"/>
       <c r="F133" s="20"/>
       <c r="I133" s="6"/>
       <c r="M133" s="28" t="str">
@@ -2930,7 +3311,7 @@
       <c r="A134" s="20">
         <v>133</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="36"/>
       <c r="F134" s="20"/>
       <c r="I134" s="6"/>
       <c r="M134" s="28" t="str">
@@ -2942,7 +3323,7 @@
       <c r="A135" s="20">
         <v>134</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="36"/>
       <c r="F135" s="20"/>
       <c r="I135" s="6"/>
       <c r="M135" s="28" t="str">
@@ -2954,7 +3335,7 @@
       <c r="A136" s="20">
         <v>135</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" s="36"/>
       <c r="F136" s="20"/>
       <c r="I136" s="6"/>
       <c r="M136" s="28" t="str">
@@ -4214,11 +4595,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFC000"/>
         <color rgb="FF00B050"/>
@@ -4226,49 +4607,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F41 F46:F76 F81:F1048576">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F45">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H200">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="3"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFFF0000"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFFF00"/>
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M1048576">
-    <cfRule type="iconSet" priority="6">
+    <cfRule type="iconSet" priority="7">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="14"/>
@@ -4285,7 +4666,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{709BCA8F-A751-4287-A14B-3DD1707A1BC0}">
+          <x14:cfRule type="colorScale" priority="1" id="{0C1255A2-082E-40FC-B432-74DC0F55CB26}">
+            <x14:colorScale>
+              <x14:cfvo type="num">
+                <xm:f>Data!$B$1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>Data!$B$2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>Data!$B$3</xm:f>
+              </x14:cfvo>
+              <x14:color rgb="FFFF0000"/>
+              <x14:color rgb="FFFFFF00"/>
+              <x14:color rgb="FF00B050"/>
+            </x14:colorScale>
+          </x14:cfRule>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{709BCA8F-A751-4287-A14B-3DD1707A1BC0}">
             <xm:f>NOT(ISERROR(SEARCH(Data!$E$5,D1)))</xm:f>
             <xm:f>Data!$E$5</xm:f>
             <x14:dxf>
@@ -4296,7 +4696,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{FFA55C31-E871-4433-9FA7-27133CA94E1D}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FFA55C31-E871-4433-9FA7-27133CA94E1D}">
             <xm:f>NOT(ISERROR(SEARCH(Data!$E$4,D1)))</xm:f>
             <xm:f>Data!$E$4</xm:f>
             <x14:dxf>
@@ -4307,7 +4707,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{49C59464-C715-4B17-91E4-9DF406DC6DD0}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{49C59464-C715-4B17-91E4-9DF406DC6DD0}">
             <xm:f>NOT(ISERROR(SEARCH(Data!$E$3,D1)))</xm:f>
             <xm:f>Data!$E$3</xm:f>
             <x14:dxf>
@@ -4318,7 +4718,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{DE0C69B2-C2E7-4F47-8818-766C189B9025}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{DE0C69B2-C2E7-4F47-8818-766C189B9025}">
             <xm:f>NOT(ISERROR(SEARCH(Data!$E$2,D1)))</xm:f>
             <xm:f>Data!$E$2</xm:f>
             <x14:dxf>
@@ -4329,7 +4729,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{B257F9CD-E9D2-4D0F-8C41-710DFDB056A8}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{B257F9CD-E9D2-4D0F-8C41-710DFDB056A8}">
             <xm:f>NOT(ISERROR(SEARCH(Data!$E$1,D1)))</xm:f>
             <xm:f>Data!$E$1</xm:f>
             <x14:dxf>
@@ -4364,11 +4764,11 @@
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3135327E-F003-40CE-8C46-8C01EE99FA13}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6FEEFCE-021A-4576-99C6-8A70FE081DD6}">
           <x14:formula1>
-            <xm:f>Kontaktinformation!$B$2:$F$2</xm:f>
+            <xm:f>Kontaktinformation!$B$2:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B1048576 F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F1048576 B1:B6 B8:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4467,7 +4867,7 @@
       </c>
       <c r="M2" s="28">
         <f ca="1">IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O2" s="14"/>
     </row>
@@ -4495,7 +4895,7 @@
       </c>
       <c r="M3" s="28">
         <f ca="1">IF(I3-TODAY()&lt;0, "Ingen Deadline valgt", I3-TODAY())</f>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4520,9 +4920,9 @@
       <c r="J4" s="4">
         <v>0.5</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="28" t="str">
         <f t="shared" ref="M4:M67" ca="1" si="0">IF(I4-TODAY()&lt;0, "Ingen Deadline valgt", I4-TODAY())</f>
-        <v>1</v>
+        <v>Ingen Deadline valgt</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -7281,32 +7681,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F41 F46:F76 F81:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F45">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,42 +7837,54 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.25</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -7483,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7494,7 +7906,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
@@ -7504,6 +7916,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7512,8 +7925,8 @@
   <sheetPr codeName="Ark5"/>
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7542,17 +7955,13 @@
         <v>22</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>30</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>

--- a/Opgaveoverblik.xlsx
+++ b/Opgaveoverblik.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="Denne_projektmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F95662C1-5659-4518-AFBC-8C4A2B0E7E1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A4779-2C43-4067-B95A-015A3716C217}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduktion" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,20 @@
     <sheet name="Data" sheetId="2" r:id="rId4"/>
     <sheet name="Kontaktinformation" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -271,6 +279,12 @@
   </si>
   <si>
     <t>Der skal laves opgraderinger som kan påføres vores skibe, så det påvirker fysikken i spillet.</t>
+  </si>
+  <si>
+    <t>Ramme Rigdebodies (andre skibe)</t>
+  </si>
+  <si>
+    <t>Skibene skal kunne skade hinanden , så dette medfører HP og hitboxes, samt hvordan hvor hurtigt og ofte skibet kan skyde (REFERER OGSÅ TIL TASK 2</t>
   </si>
 </sst>
 </file>
@@ -483,427 +497,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFADA36F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFADA36F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFADA36F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFADA36F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <b/>
@@ -1041,6 +638,83 @@
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFADA36F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -1049,6 +723,49 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1065,7 +782,150 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFADA36F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1086,22 +946,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{612DA6B7-300A-4EFE-989B-717B54988CFD}" name="Tabel1" displayName="Tabel1" ref="A1:M197" totalsRowShown="0" headerRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{612DA6B7-300A-4EFE-989B-717B54988CFD}" name="Tabel1" displayName="Tabel1" ref="A1:M197" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A1:M197" xr:uid="{357EC879-86F5-4B40-95D5-B701C580CB32}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8E20FD3B-BEB0-4E09-B330-C810D95F2EB5}" name="#" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{8E20FD3B-BEB0-4E09-B330-C810D95F2EB5}" name="#" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{0DC3ED64-D027-401F-8884-F1DB1C95891E}" name="Oprettet af" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{04A0197A-8571-4AD8-997E-7F9C51CF23BA}" name="Navn" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{8F20F71B-BD67-473B-837D-515D63B07033}" name="Type" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{57EE1E7C-CEC7-4FF2-8233-140509E50B6C}" name="Beskrivelse af opgave" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{1B4B6405-EEED-475E-BC78-F0684B7EB486}" name="Ansvarlig" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{CC409F30-590A-4B7E-B3E6-8FD3B91935E5}" name="Afhængighed" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{4B6832B6-2837-4C15-BC4F-B384E264C697}" name="Prioritet" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{1724F760-705C-43B5-B382-FC7B82E7471E}" name="Deadline" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{D81F67CC-3E9D-4309-9656-CFBB1D777E84}" name=" " dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{38F2E71F-6DF4-4B15-B6DF-6C0BCC29B48A}" name="Uddybende status" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{E7C5F009-8190-4E2A-A49F-C73AFEB4F74B}" name="Filplacering" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{54ADD58D-A272-45AA-B23D-6242BE2DB784}" name="Dage tilbage til Deadline" dataDxfId="66">
+    <tableColumn id="3" xr3:uid="{04A0197A-8571-4AD8-997E-7F9C51CF23BA}" name="Navn" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{8F20F71B-BD67-473B-837D-515D63B07033}" name="Type" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{57EE1E7C-CEC7-4FF2-8233-140509E50B6C}" name="Beskrivelse af opgave" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{1B4B6405-EEED-475E-BC78-F0684B7EB486}" name="Ansvarlig" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{CC409F30-590A-4B7E-B3E6-8FD3B91935E5}" name="Afhængighed" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{4B6832B6-2837-4C15-BC4F-B384E264C697}" name="Prioritet" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{1724F760-705C-43B5-B382-FC7B82E7471E}" name="Deadline" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{D81F67CC-3E9D-4309-9656-CFBB1D777E84}" name=" " dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{38F2E71F-6DF4-4B15-B6DF-6C0BCC29B48A}" name="Uddybende status" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{E7C5F009-8190-4E2A-A49F-C73AFEB4F74B}" name="Filplacering" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{54ADD58D-A272-45AA-B23D-6242BE2DB784}" name="Dage tilbage til Deadline" dataDxfId="25">
       <calculatedColumnFormula>IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1110,22 +970,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{542B16E9-08D3-41D4-AC8A-1F50ECA2C6D5}" name="Tabel13" displayName="Tabel13" ref="A1:M197" totalsRowShown="0" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{542B16E9-08D3-41D4-AC8A-1F50ECA2C6D5}" name="Tabel13" displayName="Tabel13" ref="A1:M197" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:M197" xr:uid="{357EC879-86F5-4B40-95D5-B701C580CB32}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{44467EE7-3696-404F-B8E2-DEEA1D302FCD}" name="#" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{F24964A0-F409-43AD-AFF9-F7FCEC833D04}" name="Oprettet af" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{A57A0D1E-4ED6-44B5-BA66-A357034E6562}" name="Navn" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{3B6FE7C1-91C1-401A-B9C9-E903B90B28F1}" name="Type" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{E77A9D25-55A2-4947-9A1C-713D4A696166}" name="Beskrivelse af opgave" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{06712186-AD66-4AD7-A7B3-6FFCE12EFA93}" name="Ansvarlig" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{AD045877-5F58-4D33-848C-E524E7E20996}" name="Afhængighed" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{08C5EAE3-678F-4BC3-AE1C-9B968EF62037}" name="Prioritet" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{915D7537-AF04-4892-9E74-8680A0A51128}" name="Deadline" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{3622FB1F-3975-4120-A42E-BCC799ED6F5D}" name="Status" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{F1E978AE-7FBE-4875-831B-E7738B60E2ED}" name="Uddybende status" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{F7EF4294-5BED-4E0D-860E-E6E3229B3856}" name="Filplacering" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{EDD0A301-8F12-48F3-BCDB-DD7BFD8ACA02}" name="Dage tilbage til Deadline" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{44467EE7-3696-404F-B8E2-DEEA1D302FCD}" name="#" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F24964A0-F409-43AD-AFF9-F7FCEC833D04}" name="Oprettet af" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A57A0D1E-4ED6-44B5-BA66-A357034E6562}" name="Navn" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3B6FE7C1-91C1-401A-B9C9-E903B90B28F1}" name="Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E77A9D25-55A2-4947-9A1C-713D4A696166}" name="Beskrivelse af opgave" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{06712186-AD66-4AD7-A7B3-6FFCE12EFA93}" name="Ansvarlig" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{AD045877-5F58-4D33-848C-E524E7E20996}" name="Afhængighed" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{08C5EAE3-678F-4BC3-AE1C-9B968EF62037}" name="Prioritet" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{915D7537-AF04-4892-9E74-8680A0A51128}" name="Deadline" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{3622FB1F-3975-4120-A42E-BCC799ED6F5D}" name="Status" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{F1E978AE-7FBE-4875-831B-E7738B60E2ED}" name="Uddybende status" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{F7EF4294-5BED-4E0D-860E-E6E3229B3856}" name="Filplacering" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{EDD0A301-8F12-48F3-BCDB-DD7BFD8ACA02}" name="Dage tilbage til Deadline" dataDxfId="0">
       <calculatedColumnFormula>IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1425,19 +1285,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1445,7 +1305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1453,7 +1313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1461,7 +1321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1469,12 +1329,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +1406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1589,27 +1449,27 @@
   <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="32" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="64.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="34.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="64.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -1680,7 +1540,7 @@
       </c>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1712,7 +1572,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -1744,7 +1604,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1773,7 +1633,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -1803,7 +1663,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -1832,7 +1692,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -1864,7 +1724,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -1896,7 +1756,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -1928,7 +1788,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -1957,9 +1817,21 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F12" s="20"/>
       <c r="I12" s="6"/>
@@ -1968,7 +1840,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -1979,7 +1851,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -1990,7 +1862,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2001,7 +1873,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2012,7 +1884,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2023,7 +1895,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -2034,7 +1906,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -2045,7 +1917,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -2056,7 +1928,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -2067,7 +1939,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -2078,7 +1950,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -2089,7 +1961,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -2100,7 +1972,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -2111,7 +1983,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -2122,7 +1994,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -2133,7 +2005,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -2144,7 +2016,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -2155,7 +2027,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -2167,7 +2039,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -2178,7 +2050,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -2189,7 +2061,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -2200,7 +2072,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -2211,7 +2083,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -2222,7 +2094,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -2233,7 +2105,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -2244,7 +2116,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -2255,7 +2127,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -2266,7 +2138,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -2277,7 +2149,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -2288,7 +2160,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -2299,7 +2171,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -2310,7 +2182,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -2321,7 +2193,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -2332,7 +2204,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -2343,7 +2215,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -2354,7 +2226,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -2365,7 +2237,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -2376,7 +2248,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -2387,7 +2259,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -2398,7 +2270,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -2409,7 +2281,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -2420,7 +2292,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -2431,7 +2303,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -2442,7 +2314,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -2453,7 +2325,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -2464,7 +2336,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -2475,7 +2347,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -2486,7 +2358,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -2497,7 +2369,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -2508,7 +2380,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -2519,7 +2391,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -2530,7 +2402,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -2541,7 +2413,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -2552,7 +2424,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -2563,7 +2435,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -2574,7 +2446,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -2585,7 +2457,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -2596,7 +2468,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -2607,7 +2479,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -2618,7 +2490,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -2629,7 +2501,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -2640,7 +2512,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -2651,7 +2523,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -2662,7 +2534,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -2673,7 +2545,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -2684,7 +2556,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -2695,7 +2567,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -2706,7 +2578,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -2717,7 +2589,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -2728,7 +2600,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -2739,7 +2611,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -2750,7 +2622,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -2761,7 +2633,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -2772,7 +2644,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -2783,7 +2655,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -2794,7 +2666,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -2805,7 +2677,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -2816,7 +2688,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -2827,7 +2699,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -2838,7 +2710,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -2849,7 +2721,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -2860,7 +2732,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -2871,7 +2743,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -2882,7 +2754,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -2893,7 +2765,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -2904,7 +2776,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -2915,7 +2787,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -2926,7 +2798,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -2937,7 +2809,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -2948,7 +2820,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -2959,7 +2831,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -2970,7 +2842,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -2981,7 +2853,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -2992,7 +2864,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -3003,7 +2875,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -3014,7 +2886,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -3025,7 +2897,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -3036,7 +2908,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -3047,7 +2919,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -3058,7 +2930,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -3069,7 +2941,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -3080,7 +2952,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -3091,7 +2963,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -3102,7 +2974,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -3113,7 +2985,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -3124,7 +2996,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -3135,7 +3007,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -3146,7 +3018,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -3157,7 +3029,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -3168,7 +3040,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -3179,7 +3051,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -3190,7 +3062,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -3201,7 +3073,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -3212,7 +3084,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -3224,7 +3096,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -3235,7 +3107,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -3247,7 +3119,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -3259,7 +3131,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -3271,7 +3143,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -3283,7 +3155,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -3295,7 +3167,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -3307,7 +3179,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -3319,7 +3191,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -3331,7 +3203,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -3343,7 +3215,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -3354,7 +3226,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -3365,7 +3237,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -3376,7 +3248,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -3387,7 +3259,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -3398,7 +3270,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -3409,7 +3281,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -3420,7 +3292,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -3431,7 +3303,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>144</v>
       </c>
@@ -3442,7 +3314,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>145</v>
       </c>
@@ -3453,7 +3325,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>146</v>
       </c>
@@ -3464,7 +3336,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>147</v>
       </c>
@@ -3475,7 +3347,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -3486,7 +3358,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>149</v>
       </c>
@@ -3497,7 +3369,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>150</v>
       </c>
@@ -3508,7 +3380,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>151</v>
       </c>
@@ -3519,7 +3391,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>152</v>
       </c>
@@ -3530,7 +3402,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>153</v>
       </c>
@@ -3541,7 +3413,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>154</v>
       </c>
@@ -3552,7 +3424,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>155</v>
       </c>
@@ -3563,7 +3435,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>156</v>
       </c>
@@ -3574,7 +3446,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -3585,7 +3457,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>158</v>
       </c>
@@ -3596,7 +3468,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>159</v>
       </c>
@@ -3607,7 +3479,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>160</v>
       </c>
@@ -3618,7 +3490,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>161</v>
       </c>
@@ -3629,7 +3501,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>162</v>
       </c>
@@ -3640,7 +3512,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -3651,7 +3523,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>164</v>
       </c>
@@ -3662,7 +3534,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>165</v>
       </c>
@@ -3673,7 +3545,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>166</v>
       </c>
@@ -3684,7 +3556,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -3695,7 +3567,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>168</v>
       </c>
@@ -3706,7 +3578,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>169</v>
       </c>
@@ -3717,7 +3589,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>170</v>
       </c>
@@ -3728,7 +3600,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>171</v>
       </c>
@@ -3739,7 +3611,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>172</v>
       </c>
@@ -3750,7 +3622,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>173</v>
       </c>
@@ -3761,7 +3633,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>174</v>
       </c>
@@ -3772,7 +3644,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>175</v>
       </c>
@@ -3783,7 +3655,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>176</v>
       </c>
@@ -3794,7 +3666,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>177</v>
       </c>
@@ -3805,7 +3677,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -3816,7 +3688,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>179</v>
       </c>
@@ -3827,7 +3699,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -3838,7 +3710,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>181</v>
       </c>
@@ -3849,7 +3721,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>182</v>
       </c>
@@ -3860,7 +3732,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>183</v>
       </c>
@@ -3871,7 +3743,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>184</v>
       </c>
@@ -3882,7 +3754,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -3893,7 +3765,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>186</v>
       </c>
@@ -3904,7 +3776,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>187</v>
       </c>
@@ -3915,7 +3787,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>188</v>
       </c>
@@ -3926,7 +3798,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -3937,7 +3809,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>190</v>
       </c>
@@ -3948,7 +3820,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>191</v>
       </c>
@@ -3959,7 +3831,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -3970,7 +3842,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>193</v>
       </c>
@@ -3981,7 +3853,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>194</v>
       </c>
@@ -3992,7 +3864,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>195</v>
       </c>
@@ -4003,7 +3875,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>196</v>
       </c>
@@ -4014,583 +3886,583 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>197</v>
       </c>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>198</v>
       </c>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>199</v>
       </c>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I244" s="6"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I245" s="6"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I248" s="6"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I253" s="6"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I254" s="6"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I255" s="6"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I256" s="6"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I257" s="6"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I258" s="6"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I259" s="6"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I260" s="6"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I261" s="6"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I263" s="6"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I264" s="6"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I266" s="6"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I267" s="6"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I290" s="6"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I291" s="6"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I305" s="6"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I312" s="6"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I313" s="6"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I314" s="6"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I315" s="6"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I316" s="6"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I317" s="6"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I318" s="6"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I319" s="6"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I320" s="6"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I321" s="6"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I322" s="6"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I323" s="6"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I324" s="6"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I325" s="6"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I326" s="6"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I327" s="6"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I328" s="6"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I329" s="6"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I330" s="6"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I331" s="6"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I332" s="6"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I333" s="6"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I334" s="6"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I335" s="6"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I336" s="6"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I337" s="6"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I338" s="6"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I339" s="6"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I340" s="6"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I341" s="6"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I342" s="6"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I343" s="6"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I344" s="6"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I345" s="6"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I346" s="6"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I347" s="6"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I348" s="6"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I349" s="6"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I350" s="6"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I351" s="6"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I352" s="6"/>
     </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I353" s="6"/>
     </row>
-    <row r="354" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I355" s="6"/>
     </row>
-    <row r="356" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I356" s="6"/>
     </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I357" s="6"/>
     </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I358" s="6"/>
     </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I359" s="6"/>
     </row>
-    <row r="360" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I360" s="6"/>
     </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I361" s="6"/>
     </row>
-    <row r="362" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I362" s="6"/>
     </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I363" s="6"/>
     </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I364" s="6"/>
     </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I365" s="6"/>
     </row>
-    <row r="366" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I366" s="6"/>
     </row>
-    <row r="367" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I367" s="6"/>
     </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I368" s="6"/>
     </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I369" s="6"/>
     </row>
-    <row r="370" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I370" s="6"/>
     </row>
-    <row r="371" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I371" s="6"/>
     </row>
-    <row r="372" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I372" s="6"/>
     </row>
-    <row r="373" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I373" s="6"/>
     </row>
-    <row r="374" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I374" s="6"/>
     </row>
-    <row r="375" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I375" s="6"/>
     </row>
-    <row r="376" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I376" s="6"/>
     </row>
-    <row r="377" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I377" s="6"/>
     </row>
-    <row r="378" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I378" s="6"/>
     </row>
-    <row r="379" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I379" s="6"/>
     </row>
-    <row r="380" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I380" s="6"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I381" s="6"/>
     </row>
-    <row r="382" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I382" s="6"/>
     </row>
-    <row r="383" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I383" s="6"/>
     </row>
-    <row r="384" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I384" s="6"/>
     </row>
-    <row r="385" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I385" s="6"/>
     </row>
-    <row r="386" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I386" s="6"/>
     </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I387" s="6"/>
     </row>
   </sheetData>
@@ -4607,32 +4479,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F41 F46:F76 F81:F1048576">
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F45">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4785,24 +4657,24 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="20" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="64.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="34.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.109375" style="28" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="53.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="64.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="28" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4843,7 +4715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -4871,7 +4743,7 @@
       </c>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -4898,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -4925,7 +4797,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -4950,7 +4822,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -4976,7 +4848,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -4987,7 +4859,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -4998,7 +4870,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -5009,7 +4881,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -5020,7 +4892,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -5031,7 +4903,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -5042,7 +4914,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -5053,7 +4925,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -5064,7 +4936,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -5075,7 +4947,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -5086,7 +4958,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -5097,7 +4969,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -5108,7 +4980,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -5119,7 +4991,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -5130,7 +5002,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -5141,7 +5013,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -5152,7 +5024,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -5163,7 +5035,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -5174,7 +5046,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -5185,7 +5057,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -5196,7 +5068,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -5207,7 +5079,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -5218,7 +5090,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -5229,7 +5101,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -5241,7 +5113,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -5252,7 +5124,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -5263,7 +5135,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -5274,7 +5146,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -5285,7 +5157,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -5296,7 +5168,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -5307,7 +5179,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -5318,7 +5190,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -5329,7 +5201,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -5340,7 +5212,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -5351,7 +5223,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -5362,7 +5234,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -5373,7 +5245,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -5384,7 +5256,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -5395,7 +5267,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -5406,7 +5278,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -5417,7 +5289,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -5428,7 +5300,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -5439,7 +5311,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -5450,7 +5322,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -5461,7 +5333,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -5472,7 +5344,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -5483,7 +5355,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -5494,7 +5366,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -5505,7 +5377,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -5516,7 +5388,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -5527,7 +5399,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -5538,7 +5410,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -5549,7 +5421,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -5560,7 +5432,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -5571,7 +5443,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -5582,7 +5454,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -5593,7 +5465,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -5604,7 +5476,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -5615,7 +5487,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -5626,7 +5498,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -5637,7 +5509,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -5648,7 +5520,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -5659,7 +5531,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -5670,7 +5542,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -5681,7 +5553,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -5692,7 +5564,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>71</v>
       </c>
@@ -5703,7 +5575,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>72</v>
       </c>
@@ -5714,7 +5586,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>73</v>
       </c>
@@ -5725,7 +5597,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>74</v>
       </c>
@@ -5736,7 +5608,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>75</v>
       </c>
@@ -5747,7 +5619,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>76</v>
       </c>
@@ -5758,7 +5630,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>77</v>
       </c>
@@ -5769,7 +5641,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>78</v>
       </c>
@@ -5780,7 +5652,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>79</v>
       </c>
@@ -5791,7 +5663,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>80</v>
       </c>
@@ -5802,7 +5674,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>81</v>
       </c>
@@ -5813,7 +5685,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>82</v>
       </c>
@@ -5824,7 +5696,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>83</v>
       </c>
@@ -5835,7 +5707,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -5846,7 +5718,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>85</v>
       </c>
@@ -5857,7 +5729,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>86</v>
       </c>
@@ -5868,7 +5740,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>87</v>
       </c>
@@ -5879,7 +5751,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>88</v>
       </c>
@@ -5890,7 +5762,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>89</v>
       </c>
@@ -5901,7 +5773,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>90</v>
       </c>
@@ -5912,7 +5784,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="20">
         <v>91</v>
       </c>
@@ -5923,7 +5795,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="20">
         <v>92</v>
       </c>
@@ -5934,7 +5806,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="20">
         <v>93</v>
       </c>
@@ -5945,7 +5817,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="20">
         <v>94</v>
       </c>
@@ -5956,7 +5828,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="20">
         <v>95</v>
       </c>
@@ -5967,7 +5839,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>96</v>
       </c>
@@ -5978,7 +5850,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>97</v>
       </c>
@@ -5989,7 +5861,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>98</v>
       </c>
@@ -6000,7 +5872,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>99</v>
       </c>
@@ -6011,7 +5883,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>100</v>
       </c>
@@ -6022,7 +5894,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>101</v>
       </c>
@@ -6033,7 +5905,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>102</v>
       </c>
@@ -6044,7 +5916,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>103</v>
       </c>
@@ -6055,7 +5927,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>104</v>
       </c>
@@ -6066,7 +5938,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>105</v>
       </c>
@@ -6077,7 +5949,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>106</v>
       </c>
@@ -6088,7 +5960,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>107</v>
       </c>
@@ -6099,7 +5971,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>108</v>
       </c>
@@ -6110,7 +5982,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>109</v>
       </c>
@@ -6121,7 +5993,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>110</v>
       </c>
@@ -6132,7 +6004,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>111</v>
       </c>
@@ -6143,7 +6015,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>112</v>
       </c>
@@ -6154,7 +6026,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>113</v>
       </c>
@@ -6165,7 +6037,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>114</v>
       </c>
@@ -6176,7 +6048,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>115</v>
       </c>
@@ -6187,7 +6059,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>116</v>
       </c>
@@ -6198,7 +6070,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>117</v>
       </c>
@@ -6209,7 +6081,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -6220,7 +6092,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>119</v>
       </c>
@@ -6231,7 +6103,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>120</v>
       </c>
@@ -6242,7 +6114,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>121</v>
       </c>
@@ -6253,7 +6125,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>122</v>
       </c>
@@ -6264,7 +6136,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>123</v>
       </c>
@@ -6275,7 +6147,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>124</v>
       </c>
@@ -6286,7 +6158,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>125</v>
       </c>
@@ -6298,7 +6170,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>126</v>
       </c>
@@ -6309,7 +6181,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>127</v>
       </c>
@@ -6321,7 +6193,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>128</v>
       </c>
@@ -6333,7 +6205,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>129</v>
       </c>
@@ -6345,7 +6217,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>130</v>
       </c>
@@ -6357,7 +6229,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>131</v>
       </c>
@@ -6369,7 +6241,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>132</v>
       </c>
@@ -6381,7 +6253,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>133</v>
       </c>
@@ -6393,7 +6265,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>134</v>
       </c>
@@ -6405,7 +6277,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -6417,7 +6289,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -6428,7 +6300,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -6439,7 +6311,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -6450,7 +6322,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -6461,7 +6333,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -6472,7 +6344,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -6483,7 +6355,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -6494,7 +6366,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -6505,7 +6377,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>144</v>
       </c>
@@ -6516,7 +6388,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>145</v>
       </c>
@@ -6527,7 +6399,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>146</v>
       </c>
@@ -6538,7 +6410,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>147</v>
       </c>
@@ -6549,7 +6421,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>148</v>
       </c>
@@ -6560,7 +6432,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>149</v>
       </c>
@@ -6571,7 +6443,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>150</v>
       </c>
@@ -6582,7 +6454,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>151</v>
       </c>
@@ -6593,7 +6465,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>152</v>
       </c>
@@ -6604,7 +6476,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>153</v>
       </c>
@@ -6615,7 +6487,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>154</v>
       </c>
@@ -6626,7 +6498,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>155</v>
       </c>
@@ -6637,7 +6509,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>156</v>
       </c>
@@ -6648,7 +6520,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>157</v>
       </c>
@@ -6659,7 +6531,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>158</v>
       </c>
@@ -6670,7 +6542,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>159</v>
       </c>
@@ -6681,7 +6553,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>160</v>
       </c>
@@ -6692,7 +6564,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>161</v>
       </c>
@@ -6703,7 +6575,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>162</v>
       </c>
@@ -6714,7 +6586,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>163</v>
       </c>
@@ -6725,7 +6597,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>164</v>
       </c>
@@ -6736,7 +6608,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>165</v>
       </c>
@@ -6747,7 +6619,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>166</v>
       </c>
@@ -6758,7 +6630,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>167</v>
       </c>
@@ -6769,7 +6641,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>168</v>
       </c>
@@ -6780,7 +6652,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>169</v>
       </c>
@@ -6791,7 +6663,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>170</v>
       </c>
@@ -6802,7 +6674,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>171</v>
       </c>
@@ -6813,7 +6685,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>172</v>
       </c>
@@ -6824,7 +6696,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>173</v>
       </c>
@@ -6835,7 +6707,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>174</v>
       </c>
@@ -6846,7 +6718,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>175</v>
       </c>
@@ -6857,7 +6729,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>176</v>
       </c>
@@ -6868,7 +6740,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>177</v>
       </c>
@@ -6879,7 +6751,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>178</v>
       </c>
@@ -6890,7 +6762,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>179</v>
       </c>
@@ -6901,7 +6773,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>180</v>
       </c>
@@ -6912,7 +6784,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>181</v>
       </c>
@@ -6923,7 +6795,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>182</v>
       </c>
@@ -6934,7 +6806,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>183</v>
       </c>
@@ -6945,7 +6817,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>184</v>
       </c>
@@ -6956,7 +6828,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>185</v>
       </c>
@@ -6967,7 +6839,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>186</v>
       </c>
@@ -6978,7 +6850,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>187</v>
       </c>
@@ -6989,7 +6861,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>188</v>
       </c>
@@ -7000,7 +6872,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>189</v>
       </c>
@@ -7011,7 +6883,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>190</v>
       </c>
@@ -7022,7 +6894,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>191</v>
       </c>
@@ -7033,7 +6905,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>192</v>
       </c>
@@ -7044,7 +6916,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>193</v>
       </c>
@@ -7055,7 +6927,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>194</v>
       </c>
@@ -7066,7 +6938,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>195</v>
       </c>
@@ -7077,7 +6949,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>196</v>
       </c>
@@ -7088,583 +6960,583 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>197</v>
       </c>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>198</v>
       </c>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>199</v>
       </c>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I201" s="6"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I202" s="6"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I203" s="6"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I204" s="6"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I205" s="6"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I206" s="6"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I207" s="6"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I208" s="6"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I209" s="6"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I210" s="6"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I211" s="6"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I212" s="6"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I213" s="6"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I214" s="6"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I215" s="6"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I216" s="6"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I217" s="6"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I218" s="6"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I219" s="6"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I220" s="6"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I221" s="6"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I222" s="6"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I223" s="6"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I224" s="6"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I225" s="6"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I226" s="6"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I227" s="6"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I228" s="6"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I229" s="6"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I230" s="6"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I231" s="6"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I232" s="6"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I233" s="6"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I234" s="6"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I235" s="6"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I236" s="6"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I240" s="6"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I241" s="6"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I242" s="6"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I243" s="6"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I244" s="6"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I245" s="6"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I246" s="6"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I247" s="6"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I248" s="6"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I249" s="6"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I250" s="6"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I251" s="6"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I252" s="6"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I253" s="6"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I254" s="6"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I255" s="6"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I256" s="6"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I257" s="6"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I258" s="6"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I259" s="6"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I260" s="6"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I261" s="6"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I262" s="6"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I263" s="6"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I264" s="6"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I265" s="6"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I266" s="6"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I267" s="6"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I268" s="6"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I269" s="6"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I270" s="6"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I271" s="6"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I272" s="6"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I273" s="6"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I274" s="6"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I275" s="6"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I276" s="6"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I277" s="6"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I278" s="6"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I279" s="6"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I280" s="6"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I281" s="6"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I282" s="6"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I283" s="6"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I284" s="6"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I285" s="6"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I286" s="6"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I287" s="6"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I288" s="6"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I289" s="6"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I290" s="6"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I291" s="6"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I292" s="6"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I293" s="6"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I304" s="6"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I305" s="6"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I306" s="6"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I307" s="6"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I308" s="6"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I309" s="6"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I310" s="6"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I311" s="6"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I312" s="6"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I313" s="6"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I314" s="6"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I315" s="6"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I316" s="6"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I317" s="6"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I318" s="6"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I319" s="6"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I320" s="6"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I321" s="6"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I322" s="6"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I323" s="6"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I324" s="6"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I325" s="6"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I326" s="6"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I327" s="6"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I328" s="6"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I329" s="6"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I330" s="6"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I331" s="6"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I332" s="6"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I333" s="6"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I334" s="6"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I335" s="6"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I336" s="6"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I337" s="6"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I338" s="6"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I339" s="6"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I340" s="6"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I341" s="6"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I342" s="6"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I343" s="6"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I344" s="6"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I345" s="6"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I346" s="6"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I347" s="6"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I348" s="6"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I349" s="6"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I350" s="6"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I351" s="6"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I352" s="6"/>
     </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I353" s="6"/>
     </row>
-    <row r="354" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I355" s="6"/>
     </row>
-    <row r="356" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I356" s="6"/>
     </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I357" s="6"/>
     </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I358" s="6"/>
     </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I359" s="6"/>
     </row>
-    <row r="360" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I360" s="6"/>
     </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I361" s="6"/>
     </row>
-    <row r="362" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I362" s="6"/>
     </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I363" s="6"/>
     </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I364" s="6"/>
     </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I365" s="6"/>
     </row>
-    <row r="366" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I366" s="6"/>
     </row>
-    <row r="367" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I367" s="6"/>
     </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I368" s="6"/>
     </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I369" s="6"/>
     </row>
-    <row r="370" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I370" s="6"/>
     </row>
-    <row r="371" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I371" s="6"/>
     </row>
-    <row r="372" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I372" s="6"/>
     </row>
-    <row r="373" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I373" s="6"/>
     </row>
-    <row r="374" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I374" s="6"/>
     </row>
-    <row r="375" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I375" s="6"/>
     </row>
-    <row r="376" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I376" s="6"/>
     </row>
-    <row r="377" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I377" s="6"/>
     </row>
-    <row r="378" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I378" s="6"/>
     </row>
-    <row r="379" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I379" s="6"/>
     </row>
-    <row r="380" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I380" s="6"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I381" s="6"/>
     </row>
-    <row r="382" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I382" s="6"/>
     </row>
-    <row r="383" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I383" s="6"/>
     </row>
-    <row r="384" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I384" s="6"/>
     </row>
-    <row r="385" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I385" s="6"/>
     </row>
-    <row r="386" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I386" s="6"/>
     </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I387" s="6"/>
     </row>
   </sheetData>
@@ -7681,32 +7553,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F41 F46:F76 F81:F1048576">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F45">
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Mangler"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7840,12 +7712,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -7859,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.25</v>
       </c>
@@ -7873,7 +7745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -7887,7 +7759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.75</v>
       </c>
@@ -7898,7 +7770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7909,7 +7781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A10" s="29" t="s">
         <v>45</v>
       </c>
@@ -7929,13 +7801,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="10" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -7947,7 +7819,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -7997,7 +7869,7 @@
       <c r="AM2" s="12"/>
       <c r="AN2" s="12"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
@@ -8043,7 +7915,7 @@
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
@@ -8089,7 +7961,7 @@
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
@@ -8135,7 +8007,7 @@
       <c r="AM5" s="12"/>
       <c r="AN5" s="12"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
@@ -8181,7 +8053,7 @@
       <c r="AM6" s="12"/>
       <c r="AN6" s="12"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8222,7 +8094,7 @@
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8263,7 +8135,7 @@
       <c r="AM8" s="12"/>
       <c r="AN8" s="12"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8304,7 +8176,7 @@
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>

--- a/Opgaveoverblik.xlsx
+++ b/Opgaveoverblik.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="Denne_projektmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A4779-2C43-4067-B95A-015A3716C217}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB900DD-970D-45D7-A7A8-2EA54EAA8721}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Skibene skal kunne skade hinanden , så dette medfører HP og hitboxes, samt hvordan hvor hurtigt og ofte skibet kan skyde (REFERER OGSÅ TIL TASK 2</t>
+  </si>
+  <si>
+    <t>Standby - Map generator skal først have taget højde for at tilføje collision boxes selv da det pt kun tager højde for aller første gang "mappet bliver lavet"</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
   <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1559,9 @@
       <c r="E3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="8">
         <v>4</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>Ingen Deadline valgt</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1628,6 +1633,9 @@
       <c r="J5" s="38">
         <v>0</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="M5" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
@@ -1833,7 +1841,9 @@
       <c r="E12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="M12" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4739,7 +4749,7 @@
       </c>
       <c r="M2" s="28">
         <f ca="1">IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O2" s="14"/>
     </row>
@@ -4767,7 +4777,7 @@
       </c>
       <c r="M3" s="28">
         <f ca="1">IF(I3-TODAY()&lt;0, "Ingen Deadline valgt", I3-TODAY())</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/Opgaveoverblik.xlsx
+++ b/Opgaveoverblik.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="Denne_projektmappe" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB900DD-970D-45D7-A7A8-2EA54EAA8721}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6156DEB-3F68-4D17-A11F-EA5AD72442A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Standby - Map generator skal først have taget højde for at tilføje collision boxes selv da det pt kun tager højde for aller første gang "mappet bliver lavet"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der er recharge time på skudene nu og skibet kan nu skyde til hver side. </t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1455,7 @@
   <dimension ref="A1:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1573,7 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="28" t="str">
         <f ca="1">IF(I3-TODAY()&lt;0, "Ingen Deadline valgt", I3-TODAY())</f>
@@ -1845,6 +1848,12 @@
         <v>56</v>
       </c>
       <c r="I12" s="6"/>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="M12" s="28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ingen Deadline valgt</v>
@@ -4749,7 +4758,7 @@
       </c>
       <c r="M2" s="28">
         <f ca="1">IF(I2-TODAY()&lt;0, "Ingen Deadline valgt", I2-TODAY())</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="O2" s="14"/>
     </row>
@@ -4775,9 +4784,9 @@
       <c r="J3" s="4">
         <v>0.25</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="28" t="str">
         <f ca="1">IF(I3-TODAY()&lt;0, "Ingen Deadline valgt", I3-TODAY())</f>
-        <v>3</v>
+        <v>Ingen Deadline valgt</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
